--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/88/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/88/FD_Curve.xlsx
@@ -488,1077 +488,1077 @@
         <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>3.14648</v>
+        <v>3.42934</v>
       </c>
       <c r="C5" t="n">
-        <v>3146.48</v>
+        <v>3429.34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.12397</v>
+        <v>0.124006</v>
       </c>
       <c r="B6" t="n">
-        <v>3.47577</v>
+        <v>4.39938</v>
       </c>
       <c r="C6" t="n">
-        <v>3475.77</v>
+        <v>4399.38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.154969</v>
+        <v>0.155041</v>
       </c>
       <c r="B7" t="n">
-        <v>3.72846</v>
+        <v>5.3039</v>
       </c>
       <c r="C7" t="n">
-        <v>3728.46</v>
+        <v>5303.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.185945</v>
+        <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>3.96877</v>
+        <v>5.86461</v>
       </c>
       <c r="C8" t="n">
-        <v>3968.77</v>
+        <v>5864.61</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.216921</v>
+        <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>4.178640000000001</v>
+        <v>6.365600000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>4178.64</v>
+        <v>6365.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247858</v>
+        <v>0.247939</v>
       </c>
       <c r="B10" t="n">
-        <v>4.31505</v>
+        <v>6.73748</v>
       </c>
       <c r="C10" t="n">
-        <v>4315.05</v>
+        <v>6737.48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278783</v>
+        <v>0.278864</v>
       </c>
       <c r="B11" t="n">
-        <v>4.41664</v>
+        <v>6.969720000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>4416.64</v>
+        <v>6969.72</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309708</v>
+        <v>0.309789</v>
       </c>
       <c r="B12" t="n">
-        <v>4.524520000000001</v>
+        <v>7.119359999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>4524.52</v>
+        <v>7119.36</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340633</v>
+        <v>0.340714</v>
       </c>
       <c r="B13" t="n">
-        <v>4.58403</v>
+        <v>7.1365</v>
       </c>
       <c r="C13" t="n">
-        <v>4584.03</v>
+        <v>7136.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371558</v>
+        <v>0.371639</v>
       </c>
       <c r="B14" t="n">
-        <v>4.63234</v>
+        <v>7.11846</v>
       </c>
       <c r="C14" t="n">
-        <v>4632.34</v>
+        <v>7118.46</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402483</v>
+        <v>0.402564</v>
       </c>
       <c r="B15" t="n">
-        <v>4.66945</v>
+        <v>7.0904</v>
       </c>
       <c r="C15" t="n">
-        <v>4669.45</v>
+        <v>7090.4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433408</v>
+        <v>0.433489</v>
       </c>
       <c r="B16" t="n">
-        <v>4.70019</v>
+        <v>7.0602</v>
       </c>
       <c r="C16" t="n">
-        <v>4700.19</v>
+        <v>7060.2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464333</v>
+        <v>0.464414</v>
       </c>
       <c r="B17" t="n">
-        <v>4.72681</v>
+        <v>7.02897</v>
       </c>
       <c r="C17" t="n">
-        <v>4726.81</v>
+        <v>7028.97</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495258</v>
+        <v>0.49534</v>
       </c>
       <c r="B18" t="n">
-        <v>4.74973</v>
+        <v>6.99659</v>
       </c>
       <c r="C18" t="n">
-        <v>4749.73</v>
+        <v>6996.59</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526183</v>
+        <v>0.526265</v>
       </c>
       <c r="B19" t="n">
-        <v>4.76729</v>
+        <v>6.96288</v>
       </c>
       <c r="C19" t="n">
-        <v>4767.29</v>
+        <v>6962.88</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557108</v>
+        <v>0.55719</v>
       </c>
       <c r="B20" t="n">
-        <v>4.78668</v>
+        <v>6.927750000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>4786.68</v>
+        <v>6927.75</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588033</v>
+        <v>0.5881150000000001</v>
       </c>
       <c r="B21" t="n">
-        <v>4.80391</v>
+        <v>6.88928</v>
       </c>
       <c r="C21" t="n">
-        <v>4803.91</v>
+        <v>6889.28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619071</v>
+        <v>0.619157</v>
       </c>
       <c r="B22" t="n">
-        <v>4.82</v>
+        <v>6.8465</v>
       </c>
       <c r="C22" t="n">
-        <v>4820</v>
+        <v>6846.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650248</v>
+        <v>0.650329</v>
       </c>
       <c r="B23" t="n">
-        <v>4.83556</v>
+        <v>6.802770000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>4835.56</v>
+        <v>6802.77</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.68142</v>
+        <v>0.6815020000000001</v>
       </c>
       <c r="B24" t="n">
-        <v>4.850680000000001</v>
+        <v>6.75366</v>
       </c>
       <c r="C24" t="n">
-        <v>4850.68</v>
+        <v>6753.66</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712597</v>
+        <v>0.712679</v>
       </c>
       <c r="B25" t="n">
-        <v>4.86436</v>
+        <v>6.70366</v>
       </c>
       <c r="C25" t="n">
-        <v>4864.36</v>
+        <v>6703.66</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.74377</v>
+        <v>0.743851</v>
       </c>
       <c r="B26" t="n">
-        <v>4.87845</v>
+        <v>6.6497</v>
       </c>
       <c r="C26" t="n">
-        <v>4878.45</v>
+        <v>6649.7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.774943</v>
+        <v>0.7750280000000001</v>
       </c>
       <c r="B27" t="n">
-        <v>4.891430000000001</v>
+        <v>6.593170000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>4891.43</v>
+        <v>6593.17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.8061199999999999</v>
+        <v>0.8062009999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>4.90387</v>
+        <v>6.534590000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>4903.87</v>
+        <v>6534.59</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837292</v>
+        <v>0.837373</v>
       </c>
       <c r="B29" t="n">
-        <v>4.91624</v>
+        <v>6.471979999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>4916.24</v>
+        <v>6471.98</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868465</v>
+        <v>0.868551</v>
       </c>
       <c r="B30" t="n">
-        <v>4.928100000000001</v>
+        <v>6.40802</v>
       </c>
       <c r="C30" t="n">
-        <v>4928.1</v>
+        <v>6408.02</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.8996420000000001</v>
+        <v>0.8997230000000001</v>
       </c>
       <c r="B31" t="n">
-        <v>4.939430000000001</v>
+        <v>6.33937</v>
       </c>
       <c r="C31" t="n">
-        <v>4939.43</v>
+        <v>6339.37</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930814</v>
+        <v>0.9308959999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>4.95042</v>
+        <v>6.26994</v>
       </c>
       <c r="C32" t="n">
-        <v>4950.42</v>
+        <v>6269.94</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.961987</v>
+        <v>0.962073</v>
       </c>
       <c r="B33" t="n">
-        <v>4.96116</v>
+        <v>6.196050000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>4961.16</v>
+        <v>6196.05</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993164</v>
+        <v>0.993245</v>
       </c>
       <c r="B34" t="n">
-        <v>4.97161</v>
+        <v>6.12136</v>
       </c>
       <c r="C34" t="n">
-        <v>4971.61</v>
+        <v>6121.36</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02447</v>
+        <v>1.02455</v>
       </c>
       <c r="B35" t="n">
-        <v>4.98176</v>
+        <v>6.04262</v>
       </c>
       <c r="C35" t="n">
-        <v>4981.76</v>
+        <v>6042.62</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05585</v>
+        <v>1.0557</v>
       </c>
       <c r="B36" t="n">
-        <v>4.9916</v>
+        <v>4.1733</v>
       </c>
       <c r="C36" t="n">
-        <v>4991.6</v>
+        <v>4173.3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08723</v>
+        <v>1.08659</v>
       </c>
       <c r="B37" t="n">
-        <v>5.001180000000001</v>
+        <v>5.87765</v>
       </c>
       <c r="C37" t="n">
-        <v>5001.18</v>
+        <v>5877.65</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11861</v>
+        <v>1.11768</v>
       </c>
       <c r="B38" t="n">
-        <v>5.0105</v>
+        <v>5.84606</v>
       </c>
       <c r="C38" t="n">
-        <v>5010.5</v>
+        <v>5846.06</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.15</v>
+        <v>1.14872</v>
       </c>
       <c r="B39" t="n">
-        <v>5.01961</v>
+        <v>5.82228</v>
       </c>
       <c r="C39" t="n">
-        <v>5019.61</v>
+        <v>5822.28</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.18111</v>
+        <v>1.17969</v>
       </c>
       <c r="B40" t="n">
-        <v>5.02848</v>
+        <v>5.68489</v>
       </c>
       <c r="C40" t="n">
-        <v>5028.48</v>
+        <v>5684.89</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21208</v>
+        <v>1.21065</v>
       </c>
       <c r="B41" t="n">
-        <v>5.03711</v>
+        <v>5.52309</v>
       </c>
       <c r="C41" t="n">
-        <v>5037.11</v>
+        <v>5523.09</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24305</v>
+        <v>1.24177</v>
       </c>
       <c r="B42" t="n">
-        <v>5.045520000000001</v>
+        <v>5.460979999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>5045.52</v>
+        <v>5460.98</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27401</v>
+        <v>1.27294</v>
       </c>
       <c r="B43" t="n">
-        <v>5.05373</v>
+        <v>5.31864</v>
       </c>
       <c r="C43" t="n">
-        <v>5053.73</v>
+        <v>5318.64</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30498</v>
+        <v>1.3041</v>
       </c>
       <c r="B44" t="n">
-        <v>5.06172</v>
+        <v>5.281239999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>5061.72</v>
+        <v>5281.24</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33595</v>
+        <v>1.33527</v>
       </c>
       <c r="B45" t="n">
-        <v>5.06951</v>
+        <v>5.177180000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>5069.51</v>
+        <v>5177.18</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36692</v>
+        <v>1.36643</v>
       </c>
       <c r="B46" t="n">
-        <v>5.07713</v>
+        <v>5.10888</v>
       </c>
       <c r="C46" t="n">
-        <v>5077.13</v>
+        <v>5108.88</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39789</v>
+        <v>1.3976</v>
       </c>
       <c r="B47" t="n">
-        <v>5.08455</v>
+        <v>5.01957</v>
       </c>
       <c r="C47" t="n">
-        <v>5084.55</v>
+        <v>5019.57</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42885</v>
+        <v>1.42876</v>
       </c>
       <c r="B48" t="n">
-        <v>5.09178</v>
+        <v>4.920680000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>5091.78</v>
+        <v>4920.68</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45956</v>
+        <v>1.45993</v>
       </c>
       <c r="B49" t="n">
-        <v>5.098850000000001</v>
+        <v>4.82562</v>
       </c>
       <c r="C49" t="n">
-        <v>5098.85</v>
+        <v>4825.62</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.49012</v>
+        <v>1.49109</v>
       </c>
       <c r="B50" t="n">
-        <v>5.10574</v>
+        <v>4.72104</v>
       </c>
       <c r="C50" t="n">
-        <v>5105.74</v>
+        <v>4721.04</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52067</v>
+        <v>1.52226</v>
       </c>
       <c r="B51" t="n">
-        <v>5.11251</v>
+        <v>4.622350000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>5112.51</v>
+        <v>4622.35</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55122</v>
+        <v>1.55333</v>
       </c>
       <c r="B52" t="n">
-        <v>5.11912</v>
+        <v>4.554</v>
       </c>
       <c r="C52" t="n">
-        <v>5119.12</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58178</v>
+        <v>1.58382</v>
       </c>
       <c r="B53" t="n">
-        <v>5.12559</v>
+        <v>4.50157</v>
       </c>
       <c r="C53" t="n">
-        <v>5125.59</v>
+        <v>4501.57</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61233</v>
+        <v>1.61429</v>
       </c>
       <c r="B54" t="n">
-        <v>5.1319</v>
+        <v>4.40796</v>
       </c>
       <c r="C54" t="n">
-        <v>5131.9</v>
+        <v>4407.96</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64301</v>
+        <v>1.64541</v>
       </c>
       <c r="B55" t="n">
-        <v>5.13812</v>
+        <v>4.36278</v>
       </c>
       <c r="C55" t="n">
-        <v>5138.12</v>
+        <v>4362.78</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67458</v>
+        <v>1.67707</v>
       </c>
       <c r="B56" t="n">
-        <v>5.14435</v>
+        <v>4.242970000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>5144.35</v>
+        <v>4242.97</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70616</v>
+        <v>1.70873</v>
       </c>
       <c r="B57" t="n">
-        <v>5.15047</v>
+        <v>4.170170000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>5150.47</v>
+        <v>4170.17</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73773</v>
+        <v>1.74037</v>
       </c>
       <c r="B58" t="n">
-        <v>5.15643</v>
+        <v>4.08873</v>
       </c>
       <c r="C58" t="n">
-        <v>5156.43</v>
+        <v>4088.73</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76913</v>
+        <v>1.77107</v>
       </c>
       <c r="B59" t="n">
-        <v>5.1623</v>
+        <v>4.03807</v>
       </c>
       <c r="C59" t="n">
-        <v>5162.3</v>
+        <v>4038.07</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.80027</v>
+        <v>1.80165</v>
       </c>
       <c r="B60" t="n">
-        <v>5.16802</v>
+        <v>3.97844</v>
       </c>
       <c r="C60" t="n">
-        <v>5168.02</v>
+        <v>3978.44</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.83142</v>
+        <v>1.83223</v>
       </c>
       <c r="B61" t="n">
-        <v>5.17363</v>
+        <v>3.92929</v>
       </c>
       <c r="C61" t="n">
-        <v>5173.63</v>
+        <v>3929.29</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86257</v>
+        <v>1.86281</v>
       </c>
       <c r="B62" t="n">
-        <v>5.17912</v>
+        <v>3.86779</v>
       </c>
       <c r="C62" t="n">
-        <v>5179.12</v>
+        <v>3867.79</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89371</v>
+        <v>1.89339</v>
       </c>
       <c r="B63" t="n">
-        <v>5.18448</v>
+        <v>3.82628</v>
       </c>
       <c r="C63" t="n">
-        <v>5184.48</v>
+        <v>3826.28</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92486</v>
+        <v>1.92397</v>
       </c>
       <c r="B64" t="n">
-        <v>5.18971</v>
+        <v>3.77226</v>
       </c>
       <c r="C64" t="n">
-        <v>5189.71</v>
+        <v>3772.26</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.956</v>
+        <v>1.95455</v>
       </c>
       <c r="B65" t="n">
-        <v>5.19482</v>
+        <v>3.71944</v>
       </c>
       <c r="C65" t="n">
-        <v>5194.82</v>
+        <v>3719.44</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98715</v>
+        <v>1.98547</v>
       </c>
       <c r="B66" t="n">
-        <v>5.19983</v>
+        <v>3.67218</v>
       </c>
       <c r="C66" t="n">
-        <v>5199.83</v>
+        <v>3672.18</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01816</v>
+        <v>2.01694</v>
       </c>
       <c r="B67" t="n">
-        <v>5.20472</v>
+        <v>3.62939</v>
       </c>
       <c r="C67" t="n">
-        <v>5204.72</v>
+        <v>3629.39</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04888</v>
+        <v>2.04733</v>
       </c>
       <c r="B68" t="n">
-        <v>5.209510000000001</v>
+        <v>3.58853</v>
       </c>
       <c r="C68" t="n">
-        <v>5209.51</v>
+        <v>3588.53</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.07961</v>
+        <v>2.07746</v>
       </c>
       <c r="B69" t="n">
-        <v>5.21421</v>
+        <v>3.53181</v>
       </c>
       <c r="C69" t="n">
-        <v>5214.21</v>
+        <v>3531.81</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.11032</v>
+        <v>2.10937</v>
       </c>
       <c r="B70" t="n">
-        <v>5.21879</v>
+        <v>3.50073</v>
       </c>
       <c r="C70" t="n">
-        <v>5218.79</v>
+        <v>3500.73</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.14104</v>
+        <v>2.1406</v>
       </c>
       <c r="B71" t="n">
-        <v>5.22327</v>
+        <v>3.46294</v>
       </c>
       <c r="C71" t="n">
-        <v>5223.27</v>
+        <v>3462.94</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17176</v>
+        <v>2.17101</v>
       </c>
       <c r="B72" t="n">
-        <v>5.22767</v>
+        <v>3.42239</v>
       </c>
       <c r="C72" t="n">
-        <v>5227.67</v>
+        <v>3422.39</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20249</v>
+        <v>2.20147</v>
       </c>
       <c r="B73" t="n">
-        <v>5.23197</v>
+        <v>3.35574</v>
       </c>
       <c r="C73" t="n">
-        <v>5231.97</v>
+        <v>3355.74</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.2332</v>
+        <v>2.23372</v>
       </c>
       <c r="B74" t="n">
-        <v>5.23616</v>
+        <v>3.34392</v>
       </c>
       <c r="C74" t="n">
-        <v>5236.16</v>
+        <v>3343.92</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26392</v>
+        <v>2.26445</v>
       </c>
       <c r="B75" t="n">
-        <v>5.240270000000001</v>
+        <v>3.31157</v>
       </c>
       <c r="C75" t="n">
-        <v>5240.27</v>
+        <v>3311.57</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29465</v>
+        <v>2.29517</v>
       </c>
       <c r="B76" t="n">
-        <v>5.24427</v>
+        <v>3.27248</v>
       </c>
       <c r="C76" t="n">
-        <v>5244.27</v>
+        <v>3272.48</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32537</v>
+        <v>2.32589</v>
       </c>
       <c r="B77" t="n">
-        <v>5.248180000000001</v>
+        <v>3.21626</v>
       </c>
       <c r="C77" t="n">
-        <v>5248.18</v>
+        <v>3216.26</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35608</v>
+        <v>2.35702</v>
       </c>
       <c r="B78" t="n">
-        <v>5.252020000000001</v>
+        <v>3.19693</v>
       </c>
       <c r="C78" t="n">
-        <v>5252.02</v>
+        <v>3196.93</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.3868</v>
+        <v>2.38705</v>
       </c>
       <c r="B79" t="n">
-        <v>5.25575</v>
+        <v>3.20189</v>
       </c>
       <c r="C79" t="n">
-        <v>5255.75</v>
+        <v>3201.89</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.41805</v>
+        <v>2.41796</v>
       </c>
       <c r="B80" t="n">
-        <v>5.25946</v>
+        <v>3.19814</v>
       </c>
       <c r="C80" t="n">
-        <v>5259.46</v>
+        <v>3198.14</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.44891</v>
+        <v>2.44813</v>
       </c>
       <c r="B81" t="n">
-        <v>5.26306</v>
+        <v>3.20601</v>
       </c>
       <c r="C81" t="n">
-        <v>5263.06</v>
+        <v>3206.01</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.47962</v>
+        <v>2.47791</v>
       </c>
       <c r="B82" t="n">
-        <v>5.266529999999999</v>
+        <v>3.19897</v>
       </c>
       <c r="C82" t="n">
-        <v>5266.53</v>
+        <v>3198.97</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51035</v>
+        <v>2.50611</v>
       </c>
       <c r="B83" t="n">
-        <v>5.26993</v>
+        <v>3.15905</v>
       </c>
       <c r="C83" t="n">
-        <v>5269.93</v>
+        <v>3159.05</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54105</v>
+        <v>2.53727</v>
       </c>
       <c r="B84" t="n">
-        <v>5.273260000000001</v>
+        <v>3.15441</v>
       </c>
       <c r="C84" t="n">
-        <v>5273.26</v>
+        <v>3154.41</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57092</v>
+        <v>2.57032</v>
       </c>
       <c r="B85" t="n">
-        <v>5.27651</v>
+        <v>3.17661</v>
       </c>
       <c r="C85" t="n">
-        <v>5276.51</v>
+        <v>3176.61</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60078</v>
+        <v>2.60361</v>
       </c>
       <c r="B86" t="n">
-        <v>5.27967</v>
+        <v>3.14438</v>
       </c>
       <c r="C86" t="n">
-        <v>5279.67</v>
+        <v>3144.38</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.63065</v>
+        <v>2.63689</v>
       </c>
       <c r="B87" t="n">
-        <v>5.282760000000001</v>
+        <v>3.11262</v>
       </c>
       <c r="C87" t="n">
-        <v>5282.76</v>
+        <v>3112.62</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66052</v>
+        <v>2.67017</v>
       </c>
       <c r="B88" t="n">
-        <v>5.28577</v>
+        <v>3.12328</v>
       </c>
       <c r="C88" t="n">
-        <v>5285.77</v>
+        <v>3123.28</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.69038</v>
+        <v>2.70314</v>
       </c>
       <c r="B89" t="n">
-        <v>5.28871</v>
+        <v>3.1176</v>
       </c>
       <c r="C89" t="n">
-        <v>5288.71</v>
+        <v>3117.6</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.72025</v>
+        <v>2.73414</v>
       </c>
       <c r="B90" t="n">
-        <v>5.29159</v>
+        <v>3.09763</v>
       </c>
       <c r="C90" t="n">
-        <v>5291.59</v>
+        <v>3097.63</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.75012</v>
+        <v>2.76488</v>
       </c>
       <c r="B91" t="n">
-        <v>5.294390000000001</v>
+        <v>3.07921</v>
       </c>
       <c r="C91" t="n">
-        <v>5294.39</v>
+        <v>3079.21</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.78081</v>
+        <v>2.7956</v>
       </c>
       <c r="B92" t="n">
-        <v>5.29717</v>
+        <v>3.06425</v>
       </c>
       <c r="C92" t="n">
-        <v>5297.17</v>
+        <v>3064.25</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.81281</v>
+        <v>2.82632</v>
       </c>
       <c r="B93" t="n">
-        <v>5.3</v>
+        <v>3.0499</v>
       </c>
       <c r="C93" t="n">
-        <v>5300</v>
+        <v>3049.9</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.84481</v>
+        <v>2.85704</v>
       </c>
       <c r="B94" t="n">
-        <v>5.30276</v>
+        <v>3.03936</v>
       </c>
       <c r="C94" t="n">
-        <v>5302.76</v>
+        <v>3039.36</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.87681</v>
+        <v>2.88776</v>
       </c>
       <c r="B95" t="n">
-        <v>5.30543</v>
+        <v>3.02255</v>
       </c>
       <c r="C95" t="n">
-        <v>5305.43</v>
+        <v>3022.55</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.90881</v>
+        <v>2.91848</v>
       </c>
       <c r="B96" t="n">
-        <v>5.30803</v>
+        <v>2.97759</v>
       </c>
       <c r="C96" t="n">
-        <v>5308.03</v>
+        <v>2977.59</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94081</v>
+        <v>2.94915</v>
       </c>
       <c r="B97" t="n">
-        <v>5.31054</v>
+        <v>2.97514</v>
       </c>
       <c r="C97" t="n">
-        <v>5310.54</v>
+        <v>2975.14</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.97281</v>
+        <v>2.97784</v>
       </c>
       <c r="B98" t="n">
-        <v>5.31298</v>
+        <v>2.98333</v>
       </c>
       <c r="C98" t="n">
-        <v>5312.98</v>
+        <v>2983.33</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.00481</v>
+        <v>3.00614</v>
       </c>
       <c r="B99" t="n">
-        <v>5.31532</v>
+        <v>2.95335</v>
       </c>
       <c r="C99" t="n">
-        <v>5315.32</v>
+        <v>2953.35</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.03681</v>
+        <v>3.0343</v>
       </c>
       <c r="B100" t="n">
-        <v>5.31758</v>
+        <v>2.93169</v>
       </c>
       <c r="C100" t="n">
-        <v>5317.58</v>
+        <v>2931.69</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.06881</v>
+        <v>3.06246</v>
       </c>
       <c r="B101" t="n">
-        <v>5.31976</v>
+        <v>2.9395</v>
       </c>
       <c r="C101" t="n">
-        <v>5319.76</v>
+        <v>2939.5</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.10081</v>
+        <v>3.09062</v>
       </c>
       <c r="B102" t="n">
-        <v>5.32184</v>
+        <v>2.89968</v>
       </c>
       <c r="C102" t="n">
-        <v>5321.84</v>
+        <v>2899.68</v>
       </c>
     </row>
   </sheetData>
